--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sost-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sost-Lrp5.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.215523666666667</v>
+        <v>15.01856033333333</v>
       </c>
       <c r="N2">
-        <v>18.646571</v>
+        <v>45.055681</v>
       </c>
       <c r="O2">
-        <v>0.2852115546146347</v>
+        <v>0.4908713633047416</v>
       </c>
       <c r="P2">
-        <v>0.2852115546146348</v>
+        <v>0.4908713633047417</v>
       </c>
       <c r="Q2">
-        <v>0.8255644999776667</v>
+        <v>1.994810239154333</v>
       </c>
       <c r="R2">
-        <v>7.430080499799001</v>
+        <v>17.953292152389</v>
       </c>
       <c r="S2">
-        <v>0.2852115546146347</v>
+        <v>0.4908713633047416</v>
       </c>
       <c r="T2">
-        <v>0.2852115546146348</v>
+        <v>0.4908713633047417</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>28.452212</v>
       </c>
       <c r="O3">
-        <v>0.4351952762116512</v>
+        <v>0.3099803572711625</v>
       </c>
       <c r="P3">
-        <v>0.4351952762116512</v>
+        <v>0.3099803572711625</v>
       </c>
       <c r="Q3">
         <v>1.259702718158667</v>
@@ -632,10 +632,10 @@
         <v>11.337324463428</v>
       </c>
       <c r="S3">
-        <v>0.4351952762116512</v>
+        <v>0.3099803572711625</v>
       </c>
       <c r="T3">
-        <v>0.4351952762116512</v>
+        <v>0.3099803572711625</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>18.279252</v>
       </c>
       <c r="O4">
-        <v>0.2795931691737141</v>
+        <v>0.1991482794240958</v>
       </c>
       <c r="P4">
-        <v>0.2795931691737141</v>
+        <v>0.1991482794240958</v>
       </c>
       <c r="Q4">
         <v>0.809301696132</v>
@@ -694,10 +694,10 @@
         <v>7.283715265188</v>
       </c>
       <c r="S4">
-        <v>0.2795931691737141</v>
+        <v>0.1991482794240958</v>
       </c>
       <c r="T4">
-        <v>0.2795931691737141</v>
+        <v>0.1991482794240958</v>
       </c>
     </row>
   </sheetData>
